--- a/1510 XML eval/imported.xlsx
+++ b/1510 XML eval/imported.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Others\NCP\1510 XML eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6605D9B-80BE-4D28-A51B-E17A7D792A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2008A289-15D2-4AA1-A30D-13AB72A33DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E58F2725-4FAE-4976-BFD7-9847B93753C8}"/>
   </bookViews>
@@ -24,12 +24,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>anonymous@gmail.com</t>
+  </si>
+  <si>
+    <t>The best outreach!</t>
+  </si>
+  <si>
+    <t>anonymous</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>himanshu</t>
+  </si>
+  <si>
+    <t>hitman6k@</t>
+  </si>
+  <si>
+    <t>I'm a developer</t>
+  </si>
+  <si>
+    <t>Good job!</t>
+  </si>
+  <si>
+    <t>marpu@gmail</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,13 +104,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,12 +426,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A48D76-0D46-4815-A2D6-826BBDE35172}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2AEB329F-5FB3-4B8B-B735-EA14C8CF30BC}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4AD4E2CB-A24D-4A46-BF70-6E5A1C779726}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B877ED8D-978E-40DF-BF83-C4D79F6F8721}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>